--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_08_beg.xlsx
@@ -932,11 +932,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactors, we've done it at last!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Forgive me for throwing cold water, but with no end in sight to our daily scuffles with the monsters, surely you agree with me our search for the way out is making hardly any progress?
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactors, we've done it at last!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Forgive me for throwing cold water, but with no end in sight to our daily scuffles with the monsters, surely you agree with me our search for the way out is making hardly any progress?
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]And so we will take on the Ink Spirits here day after day? This hardly feels like the best use of our time...
+    <t xml:space="preserve">[name="Mr. Nothing"]And so we will take on the Ink Spirits here day after day? This hardly feels like the best use of our time...
 </t>
   </si>
   <si>
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I thought you would have no trouble taking care of it.
+    <t xml:space="preserve">[name="Mr. Nothing"]I thought you would have no trouble taking care of it.
 </t>
   </si>
   <si>
@@ -1000,11 +1000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I... I can't deny I did... I know what you mean, but...
+    <t xml:space="preserve">[name="Mr. Nothing"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I... I can't deny I did... I know what you mean, but...
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I stole a glance before leaving this morning. It has been seven days since she started meditating... My benefactor, if we die of starvation or thirst in this painting, do you suppose that... we might truly die?
+    <t xml:space="preserve">[name="Mr. Nothing"]I stole a glance before leaving this morning. It has been seven days since she started meditating... My benefactor, if we die of starvation or thirst in this painting, do you suppose that... we might truly die?
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]No, no, no. I'm hardly as determined as the master. I'm afraid I would find myself distracted and never able to return.
+    <t xml:space="preserve">[name="Mr. Nothing"]No, no, no. I'm hardly as determined as the master. I'm afraid I would find myself distracted and never able to return.
 </t>
   </si>
   <si>
@@ -1160,11 +1160,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Wow, what a lifesaver! My back has been hurting me the past day and a half! At last, I can take the day off from looking for monsters!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Now, without further ado, let us take to the market—
+    <t xml:space="preserve">[name="Mr. Nothing"]Wow, what a lifesaver! My back has been hurting me the past day and a half! At last, I can take the day off from looking for monsters!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Now, without further ado, let us take to the market—
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—Quite right. How do we procure some, then?
+    <t xml:space="preserve">[name="Mr. Nothing"]—Quite right. How do we procure some, then?
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Because the earliest Yen people thought to commemorate their fallen liege's exploits by setting bamboo on fire, and memorialize the great war with its crackling sounds.
+    <t xml:space="preserve">[name="Mr. Nothing"]Because the earliest Yen people thought to commemorate their fallen liege's exploits by setting bamboo on fire, and memorialize the great war with its crackling sounds.
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Haha, I'm merely well-read on the subject.
+    <t xml:space="preserve">[name="Mr. Nothing"]Haha, I'm merely well-read on the subject.
 </t>
   </si>
   <si>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]What a fine bamboo tree. Would be a waste to cut it down!
+    <t xml:space="preserve">[name="Mr. Nothing"]What a fine bamboo tree. Would be a waste to cut it down!
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Showing no mercy to the flora, are we...?
+    <t xml:space="preserve">[name="Mr. Nothing"]Showing no mercy to the flora, are we...?
 </t>
   </si>
   <si>
@@ -1272,7 +1272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactor! They are here!
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactor! They are here!
 </t>
   </si>
   <si>
@@ -1288,7 +1288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]We did it! They're dazed!
+    <t xml:space="preserve">[name="Mr. Nothing"]We did it! They're dazed!
 </t>
   </si>
   <si>
@@ -1296,7 +1296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]They ran? Are they truly afraid of it?
+    <t xml:space="preserve">[name="Mr. Nothing"]They ran? Are they truly afraid of it?
 </t>
   </si>
   <si>
@@ -1464,7 +1464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]우린 아무 일 없을 거야. 우린 무사히 이곳을 빠져나가 안전하게 로도스로 돌아갈 수 있을 거야.
+    <t xml:space="preserve">[name="라바"]우린 아무 일 없을 거야. 우린 무사히 이곳을 빠져나가 안전하게 로도스 아일랜드로 돌아갈 수 있을 거야.
 </t>
   </si>
   <si>
@@ -1472,7 +1472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]어.
+    <t xml:space="preserve">[name="라바"]응.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]정말이야?!
+    <t xml:space="preserve">[name="라바"]진짜!?
 </t>
   </si>
   <si>
